--- a/results/mod3.antielite_salienceBYhealth.eff.MN.xlsx
+++ b/results/mod3.antielite_salienceBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0163298225315172</v>
+        <v>0.0163292080382651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0196508385310854</v>
+        <v>0.0196507486922919</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0221851132554221</v>
+        <v>-0.0221855516678746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0548447583184565</v>
+        <v>0.0548439677444047</v>
       </c>
       <c r="G2" t="n">
-        <v>0.830998764031637</v>
+        <v>0.830971292440897</v>
       </c>
       <c r="H2" t="n">
-        <v>0.405974327580834</v>
+        <v>0.405989847014065</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.121958326894239</v>
+        <v>-0.121956176705348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0432175110181665</v>
+        <v>0.0432172435391614</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.206663091991308</v>
+        <v>-0.2066604175532</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0372535617971698</v>
+        <v>-0.0372519358574949</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.82196554176787</v>
+        <v>-2.82193325436956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00477303054318804</v>
+        <v>0.00477351109821059</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0610072802439401</v>
+        <v>0.061006578438649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0169169542825952</v>
+        <v>0.0169168664220703</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0278506591219428</v>
+        <v>0.0278501295201162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0941639013659374</v>
+        <v>0.0941630273571817</v>
       </c>
       <c r="G4" t="n">
-        <v>3.60628037558194</v>
+        <v>3.60625761985434</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000310617518125904</v>
+        <v>0.000310644744680293</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0446212241187818</v>
+        <v>0.0446203902284335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0156375934090351</v>
+        <v>0.0156375013860511</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0139721042321921</v>
+        <v>0.0139714507035781</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0752703440053715</v>
+        <v>0.0752693297532888</v>
       </c>
       <c r="G5" t="n">
-        <v>2.85345851830375</v>
+        <v>2.85342198391333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0043246173487594</v>
+        <v>0.00432511463078131</v>
       </c>
     </row>
   </sheetData>
